--- a/data/hongfa_1p_map.xlsx
+++ b/data/hongfa_1p_map.xlsx
@@ -710,10 +710,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,50 +809,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -777,42 +817,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -825,10 +833,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,15 +848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,49 +869,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,132 +1050,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,17 +1087,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1116,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,41 +1168,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,10 +1192,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,16 +1204,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,115 +1222,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1713,8 +1713,8 @@
   <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/hongfa_1p_map.xlsx
+++ b/data/hongfa_1p_map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
   <si>
     <t>address</t>
   </si>
@@ -68,28 +68,31 @@
     <t>断路器保护状态位</t>
   </si>
   <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>见备注 1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>id3</t>
+  </si>
+  <si>
+    <t>SPS</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>断路器报警标志位</t>
+  </si>
+  <si>
     <t>ushort</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>见备注 1</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>id3</t>
-  </si>
-  <si>
-    <t>SPS</t>
-  </si>
-  <si>
-    <t>0x0001</t>
-  </si>
-  <si>
-    <t>断路器报警标志位</t>
   </si>
   <si>
     <t>见备注 2</t>
@@ -574,10 +577,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -590,6 +593,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -610,17 +667,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,22 +681,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,7 +691,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,53 +707,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,15 +721,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,37 +751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,31 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,55 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,6 +842,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,11 +997,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,8 +1015,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,17 +1036,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,17 +1056,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,16 +1083,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,133 +1112,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1603,12 +1606,14 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="14" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="14" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14">
@@ -1725,7 +1730,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1743,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>20</v>
@@ -1752,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -1763,13 +1768,13 @@
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:14">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>18</v>
@@ -1787,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>20</v>
@@ -1796,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
@@ -1807,13 +1812,13 @@
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
@@ -1831,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>20</v>
@@ -1840,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
@@ -1851,13 +1856,13 @@
     </row>
     <row r="7" ht="22" customHeight="1" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
@@ -1875,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
@@ -1895,13 +1900,13 @@
     </row>
     <row r="8" ht="22" customHeight="1" spans="1:14">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
@@ -1919,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="4">
         <v>1</v>
@@ -1939,16 +1944,16 @@
     </row>
     <row r="9" ht="22" customHeight="1" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1963,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
@@ -1983,13 +1988,13 @@
     </row>
     <row r="10" ht="22" customHeight="1" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
@@ -2007,19 +2012,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
@@ -2027,13 +2032,13 @@
     </row>
     <row r="11" ht="22" customHeight="1" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
@@ -2051,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
@@ -2071,7 +2076,7 @@
     </row>
     <row r="12" ht="22" customHeight="1" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2089,13 +2094,13 @@
     </row>
     <row r="13" ht="22" customHeight="1" spans="1:14">
       <c r="A13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>18</v>
@@ -2113,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
@@ -2133,13 +2138,13 @@
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>18</v>
@@ -2157,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
@@ -2177,13 +2182,13 @@
     </row>
     <row r="15" ht="22" customHeight="1" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
@@ -2201,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
@@ -2221,13 +2226,13 @@
     </row>
     <row r="16" ht="22" customHeight="1" spans="1:14">
       <c r="A16" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
@@ -2245,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
@@ -2265,13 +2270,13 @@
     </row>
     <row r="17" ht="22" customHeight="1" spans="1:14">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>18</v>
@@ -2289,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -2301,7 +2306,7 @@
         <v>18010</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
@@ -2309,13 +2314,13 @@
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>18</v>
@@ -2333,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -2345,7 +2350,7 @@
         <v>18016</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
@@ -2353,13 +2358,13 @@
     </row>
     <row r="19" ht="22" customHeight="1" spans="1:14">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -2377,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="4">
         <v>1</v>
@@ -2389,7 +2394,7 @@
         <v>18034</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
@@ -2397,13 +2402,13 @@
     </row>
     <row r="20" ht="22" customHeight="1" spans="1:14">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>18</v>
@@ -2421,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -2441,13 +2446,13 @@
     </row>
     <row r="21" ht="22" customHeight="1" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>18</v>
@@ -2465,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K21" s="4">
         <v>1</v>
@@ -2477,7 +2482,7 @@
         <v>18028</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N21" s="4">
         <v>1</v>
@@ -2485,13 +2490,13 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:14">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>18</v>
@@ -2509,19 +2514,19 @@
         <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22" s="4">
         <v>1</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N22" s="4">
         <v>1</v>
@@ -2529,13 +2534,13 @@
     </row>
     <row r="23" ht="22" customHeight="1" spans="1:14">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>18</v>
@@ -2553,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23" s="4">
         <v>4</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
@@ -2573,13 +2578,13 @@
     </row>
     <row r="24" ht="22" customHeight="1" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
@@ -2597,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K24" s="4">
         <v>2</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
@@ -2617,7 +2622,7 @@
     </row>
     <row r="25" ht="22" customHeight="1" spans="1:14">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2635,13 +2640,13 @@
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:14">
       <c r="A26" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
@@ -2659,19 +2664,19 @@
         <v>0</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K26" s="4">
         <v>1</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
@@ -2679,13 +2684,13 @@
     </row>
     <row r="27" ht="22" customHeight="1" spans="1:14">
       <c r="A27" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
@@ -2703,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K27" s="4">
         <v>1</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N27" s="4">
         <v>1</v>
@@ -2723,13 +2728,13 @@
     </row>
     <row r="28" ht="22" customHeight="1" spans="1:14">
       <c r="A28" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>18</v>
@@ -2747,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K28" s="4">
         <v>1</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
@@ -2767,13 +2772,13 @@
     </row>
     <row r="29" ht="22" customHeight="1" spans="1:14">
       <c r="A29" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
@@ -2791,19 +2796,19 @@
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K29" s="4">
         <v>1</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N29" s="4">
         <v>1</v>
@@ -2811,13 +2816,13 @@
     </row>
     <row r="30" ht="22" customHeight="1" spans="1:14">
       <c r="A30" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>18</v>
@@ -2835,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N30" s="4">
         <v>1</v>
@@ -2855,13 +2860,13 @@
     </row>
     <row r="31" ht="22" customHeight="1" spans="1:14">
       <c r="A31" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>18</v>
@@ -2879,19 +2884,19 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31" s="4">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N31" s="4">
         <v>1</v>
@@ -2899,13 +2904,13 @@
     </row>
     <row r="32" ht="22" customHeight="1" spans="1:14">
       <c r="A32" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>18</v>
@@ -2923,19 +2928,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K32" s="4">
         <v>1</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N32" s="4">
         <v>1</v>
@@ -2943,13 +2948,13 @@
     </row>
     <row r="33" ht="22" customHeight="1" spans="1:14">
       <c r="A33" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
@@ -2967,19 +2972,19 @@
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K33" s="4">
         <v>1</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
@@ -2987,13 +2992,13 @@
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:14">
       <c r="A34" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>18</v>
@@ -3011,19 +3016,19 @@
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K34" s="4">
         <v>1</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N34" s="4">
         <v>1</v>
@@ -3031,13 +3036,13 @@
     </row>
     <row r="35" ht="22" customHeight="1" spans="1:14">
       <c r="A35" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>18</v>
@@ -3055,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K35" s="4">
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N35" s="4">
         <v>1</v>
@@ -3075,13 +3080,13 @@
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:14">
       <c r="A36" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>18</v>
@@ -3099,19 +3104,19 @@
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36" s="4">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N36" s="4">
         <v>1</v>
@@ -3119,13 +3124,13 @@
     </row>
     <row r="37" ht="22" customHeight="1" spans="1:14">
       <c r="A37" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>18</v>
@@ -3143,19 +3148,19 @@
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37" s="4">
         <v>1</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N37" s="4">
         <v>0</v>
@@ -3163,13 +3168,13 @@
     </row>
     <row r="38" ht="22" customHeight="1" spans="1:14">
       <c r="A38" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>18</v>
@@ -3187,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38" s="4">
         <v>1</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N38" s="4">
         <v>0</v>
@@ -3207,16 +3212,16 @@
     </row>
     <row r="39" ht="22" customHeight="1" spans="1:14">
       <c r="A39" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -3231,19 +3236,19 @@
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39" s="4">
         <v>1</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N39" s="4">
         <v>0</v>
@@ -3251,16 +3256,16 @@
     </row>
     <row r="40" ht="22" customHeight="1" spans="1:14">
       <c r="A40" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -3275,19 +3280,19 @@
         <v>0</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40" s="4">
         <v>1</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N40" s="4">
         <v>0</v>
@@ -3295,16 +3300,16 @@
     </row>
     <row r="41" ht="22" customHeight="1" spans="1:14">
       <c r="A41" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -3319,19 +3324,19 @@
         <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41" s="4">
         <v>1</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N41" s="4">
         <v>0</v>
